--- a/data/trans_camb/P25_9-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_9-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,48</t>
+          <t>12,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-9,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>14,98</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13,4</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 15,43</t>
+          <t>-5,94; 16,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 7,75</t>
+          <t>-10,53; 10,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 3,92</t>
+          <t>-4,47; 28,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 2,47</t>
+          <t>-26,87; 7,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 6,35</t>
+          <t>-24,58; 8,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 3,22</t>
+          <t>-5,47; 33,43</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,67; 8,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-15,85; 7,83</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 27,85</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-29,14%</t>
+          <t>211,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-32,87%</t>
+          <t>-28,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-20,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>46,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,67%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-18,8%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68,57%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 313,39</t>
+          <t>-62,58; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,75; 163,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 19,83</t>
+          <t>-38,11; 1421,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,39; 9,99</t>
+          <t>-64,19; 29,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 42,77</t>
+          <t>-59,48; 37,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,82; 20,5</t>
+          <t>-13,24; 151,92</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-54,96; 64,62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-64,22; 63,78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,0; 205,94</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 5,26</t>
+          <t>-6,99; 1,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,67</t>
+          <t>-6,26; 2,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 6,8</t>
+          <t>-1,16; 10,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 7,51</t>
+          <t>-8,3; 8,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,14</t>
+          <t>-11,18; 4,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,79</t>
+          <t>-4,51; 12,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 3,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 1,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 9,09</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-50,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,39%</t>
+          <t>-37,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-14,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,47%</t>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-10,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-22,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31,22%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,78; 199,85</t>
+          <t>-88,47; 96,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,45; 41,95</t>
+          <t>-79,59; 121,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 46,01</t>
+          <t>-26,15; 469,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 53,49</t>
+          <t>-36,23; 62,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 47,03</t>
+          <t>-49,45; 31,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 31,59</t>
+          <t>-21,33; 86,03</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-40,34; 38,67</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-51,07; 19,7</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,56; 96,37</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,15</t>
+          <t>-6,78; 1,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 1,61</t>
+          <t>-6,5; 1,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 4,5</t>
+          <t>-5,25; 5,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,7</t>
+          <t>-9,07; 5,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,88</t>
+          <t>-10,29; 4,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,32</t>
+          <t>-8,22; 7,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 2,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 2,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 3,86</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-45,26%</t>
+          <t>-51,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,61%</t>
+          <t>-52,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,94%</t>
+          <t>-12,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,54%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,69%</t>
+          <t>-15,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,62%</t>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-18,15%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-24,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-5,72%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,73; 58,3</t>
+          <t>-100,0; 168,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,15; 74,53</t>
+          <t>-100,0; 180,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,31; 39,01</t>
+          <t>-80,9; 380,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 33,6</t>
+          <t>-47,24; 48,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 22,75</t>
+          <t>-53,37; 40,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 15,98</t>
+          <t>-43,91; 66,17</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-52,94; 31,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-56,44; 25,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-39,83; 50,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 2,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-31,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 85,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 12,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 15,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 13,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 17,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 5,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 1,48</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 1,1</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 8,18</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 3,87</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; 2,33</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 11,18</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 1,57</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 0,6</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 7,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-28,85%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-36,51%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>81,08%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-8,7%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-15,29%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-13,84%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-21,87%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-67,27; 45,7</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-71,48; 37,58</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 235,49</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-31,41; 24,91</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-36,97; 15,07</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 71,51</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-34,72; 13,91</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-41,37; 6,74</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 74,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
